--- a/target/classes/companies/consumer_defense/ProcterGamble/PG_Procter&Gamble.xlsx
+++ b/target/classes/companies/consumer_defense/ProcterGamble/PG_Procter&Gamble.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAEDCF-5648-436D-9A94-2A6272AA5950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5582A21-9FF5-421F-A530-94C31A2EB4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18685,7 +18685,7 @@
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19856,8 +19856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI39" sqref="AI39"/>
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20114,8 +20114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20492,7 +20492,7 @@
         <v>0.43819593899129783</v>
       </c>
       <c r="F23" s="26">
-        <f t="shared" si="2"/>
+        <f>(F22-E22)/E22</f>
         <v>-0.18327911515940143</v>
       </c>
       <c r="G23" s="26">
@@ -21045,45 +21045,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <f>L25*(1+C46)</f>
-        <v>21238.59998617326</v>
-      </c>
-      <c r="D45" s="21">
-        <f>C45*(1+D46)</f>
-        <v>21875.757971516956</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>22532.030695993719</v>
+      <c r="C45" s="60">
+        <v>20876</v>
+      </c>
+      <c r="D45" s="60">
+        <v>22458</v>
+      </c>
+      <c r="E45" s="60">
+        <v>23669</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="8"/>
-        <v>23207.991601764657</v>
+        <f t="shared" ref="F45:L45" si="8">E45*(1+F46)</f>
+        <v>24379.069984128699</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="8"/>
-        <v>23904.231334255521</v>
+        <v>25110.442067305121</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="8"/>
-        <v>24621.358258254182</v>
+        <v>25863.75531248641</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="8"/>
-        <v>25359.998989491974</v>
+        <v>26639.667954518001</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="8"/>
-        <v>26120.798942171612</v>
+        <v>27438.857975290251</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="8"/>
-        <v>26904.422892921448</v>
+        <v>28262.023696149772</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="8"/>
-        <v>27711.55556166828</v>
+        <v>29109.884388083101</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21091,16 +21088,16 @@
         <v>27</v>
       </c>
       <c r="C46" s="20">
-        <f>C10</f>
-        <v>2.9999999329447746E-2</v>
+        <f>(C45-L25)/L25</f>
+        <v>1.2415130940834141E-2</v>
       </c>
       <c r="D46" s="20">
-        <f>C10</f>
-        <v>2.9999999329447746E-2</v>
+        <f>(D45-C45)/C45</f>
+        <v>7.5780800919716423E-2</v>
       </c>
       <c r="E46" s="20">
-        <f>C10</f>
-        <v>2.9999999329447746E-2</v>
+        <f>(E45-D45)/D45</f>
+        <v>5.3922878261643957E-2</v>
       </c>
       <c r="F46" s="20">
         <f>C10</f>
@@ -21425,7 +21422,7 @@
       </c>
       <c r="C69" s="25">
         <f>L45*C9</f>
-        <v>519314.54488299321</v>
+        <v>545519.2267699535</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C70" s="23">
         <f>C69/C55</f>
-        <v>277773.67550931842</v>
+        <v>291790.17259189795</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21447,7 +21444,7 @@
       </c>
       <c r="C72" s="72">
         <f>SUM(C53:L53)+C70</f>
-        <v>386464.75795400148</v>
+        <v>400481.25503658102</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21457,7 +21454,7 @@
       </c>
       <c r="C74" s="70">
         <f>C72/(C11/1000000)</f>
-        <v>161.73092170860116</v>
+        <v>167.59665964624102</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21551,7 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21657,54 +21654,54 @@
       </c>
       <c r="C7" s="90">
         <f>P6*(1+P7)</f>
-        <v>3.8727999901771546</v>
+        <v>3.8915999906897518</v>
       </c>
       <c r="D7" s="90">
         <f>C7*(1+P7)</f>
-        <v>3.9889839898824695</v>
+        <v>4.0278059909437784</v>
       </c>
       <c r="E7" s="90">
         <f>D7*(1+P7)</f>
-        <v>4.1086535095789438</v>
+        <v>4.1687792012269957</v>
       </c>
       <c r="F7" s="90">
         <f>E7*(1+P7)</f>
-        <v>4.2319131148663125</v>
+        <v>4.3146864738911344</v>
       </c>
       <c r="G7" s="90">
         <f>F7*(1+P7)</f>
-        <v>4.3588705083123021</v>
+        <v>4.4657005011202511</v>
       </c>
       <c r="H7" s="90">
         <f>G7*(1+P7)</f>
-        <v>4.4896366235616716</v>
+        <v>4.6220000193248927</v>
       </c>
       <c r="I7" s="90">
         <f>H7*(1+P7)</f>
-        <v>4.6243257222685221</v>
+        <v>4.7837700206899854</v>
       </c>
       <c r="J7" s="90">
         <f>I7*(1+P7)</f>
-        <v>4.7630554939365783</v>
+        <v>4.9512019721269693</v>
       </c>
       <c r="K7" s="90">
         <f>J7*(1+P7)</f>
-        <v>4.9059471587546755</v>
+        <v>5.1244940418891929</v>
       </c>
       <c r="L7" s="90">
         <f>K7*(1+P7)</f>
-        <v>5.0531255735173159</v>
+        <v>5.3038513341189129</v>
       </c>
       <c r="M7" s="159">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>182.42329541170358</v>
+        <v>233.2873989024439</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
       <c r="P7" s="104">
-        <v>0.03</v>
+        <v>3.5000000149011612E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
@@ -21713,47 +21710,47 @@
       </c>
       <c r="C8" s="90">
         <f>C7/(1+P8)</f>
-        <v>3.6586552346353622</v>
+        <v>3.6764156974687245</v>
       </c>
       <c r="D8" s="90">
         <f>D7/(1+P8)^2</f>
-        <v>3.5600420637967938</v>
+        <v>3.5946894720414857</v>
       </c>
       <c r="E8" s="90">
         <f>E7/(1+P8)^3</f>
-        <v>3.4640868524649795</v>
+        <v>3.5147800095900252</v>
       </c>
       <c r="F8" s="90">
         <f>F7/(1+P8)^4</f>
-        <v>3.3707179596138848</v>
+        <v>3.43664692371819</v>
       </c>
       <c r="G8" s="90">
         <f>G7/(1+P8)^5</f>
-        <v>3.2798656751861714</v>
+        <v>3.3602507258140855</v>
       </c>
       <c r="H8" s="90">
         <f>H7/(1+P8)^6</f>
-        <v>3.1914621680470447</v>
+        <v>3.2855528050922751</v>
       </c>
       <c r="I8" s="90">
         <f>I7/(1+P8)^7</f>
-        <v>3.1054414353409143</v>
+        <v>3.2125154090799395</v>
       </c>
       <c r="J8" s="90">
         <f>J7/(1+P8)^8</f>
-        <v>3.0217392532130702</v>
+        <v>3.1411016245365673</v>
       </c>
       <c r="K8" s="90">
         <f>K7/(1+P8)^9</f>
-        <v>2.9402931288595662</v>
+        <v>3.0712753587980517</v>
       </c>
       <c r="L8" s="90">
         <f>L7/(1+P8)^10</f>
-        <v>2.8610422538695386</v>
+        <v>3.0030013215353484</v>
       </c>
       <c r="M8" s="159">
         <f>M7/POWER((1+P8),10)</f>
-        <v>103.28671802622887</v>
+        <v>132.0855964975803</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
@@ -21774,7 +21771,7 @@
       </c>
       <c r="C10" s="95">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>135.74006405125618</v>
+        <v>165.38182584525501</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21878,54 +21875,54 @@
       </c>
       <c r="C16" s="90">
         <f>P15*(1+P16)</f>
-        <v>3.9009999901056291</v>
+        <v>3.9103999867200874</v>
       </c>
       <c r="D16" s="90">
         <f>C16*(1+P16)</f>
-        <v>4.0472874897345905</v>
+        <v>4.0668159826927219</v>
       </c>
       <c r="E16" s="90">
         <f>D16*(1+P16)</f>
-        <v>4.1990607705996377</v>
+        <v>4.2294886183644103</v>
       </c>
       <c r="F16" s="90">
         <f>E16*(1+P16)</f>
-        <v>4.3565255494971247</v>
+        <v>4.3986681593175279</v>
       </c>
       <c r="G16" s="90">
         <f>F16*(1+P16)</f>
-        <v>4.5198952576032676</v>
+        <v>4.5746148817575136</v>
       </c>
       <c r="H16" s="90">
         <f>G16*(1+P16)</f>
-        <v>4.6893913297633905</v>
+        <v>4.7575994729377848</v>
       </c>
       <c r="I16" s="90">
         <f>H16*(1+P16)</f>
-        <v>4.8652435046295182</v>
+        <v>4.9479034476016643</v>
       </c>
       <c r="J16" s="90">
         <f>I16*(1+P16)</f>
-        <v>5.0476901360531254</v>
+        <v>5.1458195810819545</v>
       </c>
       <c r="K16" s="90">
         <f>J16*(1+P16)</f>
-        <v>5.2369785161551183</v>
+        <v>5.3516523597245049</v>
       </c>
       <c r="L16" s="90">
         <f>K16*(1+P16)</f>
-        <v>5.433365210510936</v>
+        <v>5.5657184493287284</v>
       </c>
       <c r="M16" s="159">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>268.03841786367474</v>
+        <v>312.3601743302541</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
       <c r="P16" s="104">
-        <v>3.7499999999999999E-2</v>
+        <v>3.9999999105930328E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
@@ -21934,47 +21931,47 @@
       </c>
       <c r="C17" s="90">
         <f>C16/(1+P17)</f>
-        <v>3.685295928091445</v>
+        <v>3.6941761560676674</v>
       </c>
       <c r="D17" s="90">
         <f>D16/(1+P17)^2</f>
-        <v>3.612076093631603</v>
+        <v>3.6295046560298987</v>
       </c>
       <c r="E17" s="90">
         <f>E16/(1+P17)^3</f>
-        <v>3.5403109982925627</v>
+        <v>3.5659653171941375</v>
       </c>
       <c r="F17" s="90">
         <f>F16/(1+P17)^4</f>
-        <v>3.4699717391694604</v>
+        <v>3.503538319562538</v>
       </c>
       <c r="G17" s="90">
         <f>G16/(1+P17)^5</f>
-        <v>3.4010299876032852</v>
+        <v>3.4422041901129421</v>
       </c>
       <c r="H17" s="90">
         <f>H16/(1+P17)^6</f>
-        <v>3.3334579777717073</v>
+        <v>3.3819437967244834</v>
       </c>
       <c r="I17" s="90">
         <f>I16/(1+P17)^7</f>
-        <v>3.2672284955065778</v>
+        <v>3.3227383422097359</v>
       </c>
       <c r="J17" s="90">
         <f>J16/(1+P17)^8</f>
-        <v>3.2023148673336133</v>
+        <v>3.2645693584511459</v>
       </c>
       <c r="K17" s="90">
         <f>K16/(1+P17)^9</f>
-        <v>3.1386909497298277</v>
+        <v>3.2074187006403232</v>
       </c>
       <c r="L17" s="90">
         <f>L16/(1+P17)^10</f>
-        <v>3.0763311185944109</v>
+        <v>3.1512685416180499</v>
       </c>
       <c r="M17" s="159">
         <f>M16/POWER((1+P17),10)</f>
-        <v>151.76136591327977</v>
+        <v>176.85601598118524</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
@@ -21995,7 +21992,7 @@
       </c>
       <c r="C19" s="95">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>185.48807406900426</v>
+        <v>211.01934335979601</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
